--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431588.7481985008</v>
+        <v>428620.0192745835</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692569</v>
+        <v>7757679.400320136</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12395407.83918585</v>
+        <v>12396151.41672488</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>164.6242057717098</v>
+        <v>373.4050681284028</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>76.71587097450787</v>
+        <v>22.11041309544133</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>161.6676065732858</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>250.0195974574571</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>86.68093428323016</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.7411677825657</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>130.4588318996842</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>300.1709771890793</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.5979763390385</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>26.86960449555587</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>183.8751672983358</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>91.74341314428786</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.28085849688269</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.7297043644273</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.20584125154421</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>78.79804590908019</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>7.601081015447448</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>50.17397967625531</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>35.04032410925145</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>53.82704427691563</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>203.4068132192033</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>239.9115438999875</v>
       </c>
       <c r="X31" t="n">
-        <v>53.45227442954797</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.5103646250819</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793848</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365872</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.820581188166</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286618</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672382</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533784</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719578</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341166</v>
+        <v>83.55410938283593</v>
       </c>
       <c r="E37" t="n">
-        <v>1.746321558351226</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031324</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698776</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743632</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049414</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.474864467999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>381.1967972861383</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6708051668792</v>
+        <v>175.5610162827835</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835697</v>
+        <v>162.9758571994741</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031543</v>
+        <v>87.50178779239491</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315111</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>17.49967760338847</v>
+        <v>141.1500841237775</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>77.53361284525525</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602547</v>
+        <v>62.9097876919298</v>
       </c>
       <c r="S40" t="n">
-        <v>177.1773133434009</v>
+        <v>177.0675244593052</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477037</v>
+        <v>213.211030563608</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333624</v>
+        <v>281.9144876492667</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087699</v>
+        <v>247.8666794246742</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215329</v>
+        <v>282.2520344374373</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739791</v>
+        <v>221.4386914898834</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370367</v>
+        <v>214.313689452941</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002301</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.70965412973848</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1744.232431292459</v>
+        <v>1335.585246272809</v>
       </c>
       <c r="C2" t="n">
-        <v>1375.269914352047</v>
+        <v>1335.585246272809</v>
       </c>
       <c r="D2" t="n">
-        <v>1017.004215745297</v>
+        <v>977.3195476660587</v>
       </c>
       <c r="E2" t="n">
-        <v>631.2159631470527</v>
+        <v>591.5312950678144</v>
       </c>
       <c r="F2" t="n">
-        <v>220.2300583574451</v>
+        <v>584.585794318611</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y2" t="n">
-        <v>2130.832271356581</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.3468541648867</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="C4" t="n">
-        <v>279.3468541648867</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="D4" t="n">
-        <v>279.3468541648867</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="E4" t="n">
-        <v>131.4337605824936</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>76.27673242182033</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1717.152892125119</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C5" t="n">
-        <v>1348.190375184708</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D5" t="n">
-        <v>1348.190375184708</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E5" t="n">
-        <v>962.4021225864633</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036444</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656313</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656313</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.618650386199</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.152892125119</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.152892125119</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>344.90437809669</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>344.90437809669</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>344.90437809669</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>344.90437809669</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036444</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1077.074462393506</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1077.074462393506</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1077.074462393506</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>691.2862097952614</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>684.3407090460579</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1837.140060718707</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>1463.674302457627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.118241157406</v>
+        <v>1463.674302457627</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.0202652891861</v>
+        <v>552.8413109986426</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>552.8413109986426</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>552.8413109986426</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>552.8413109986426</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>552.8413109986426</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>552.8413109986426</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>552.8413109986426</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>552.8413109986426</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>552.8413109986426</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>552.8413109986426</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,13 +5024,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.840519464784</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5121,10 +5121,10 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.4168978689405</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1770.610973884162</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1481.508107009805</v>
+        <v>1582.157010401899</v>
       </c>
       <c r="V13" t="n">
-        <v>1226.823618803918</v>
+        <v>1582.157010401899</v>
       </c>
       <c r="W13" t="n">
-        <v>937.4064487669577</v>
+        <v>1582.157010401899</v>
       </c>
       <c r="X13" t="n">
-        <v>709.4168978689405</v>
+        <v>1354.167459503881</v>
       </c>
       <c r="Y13" t="n">
-        <v>709.4168978689405</v>
+        <v>1133.374880360351</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,19 +5279,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390123</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>855.6340846510827</v>
+        <v>822.6328654632895</v>
       </c>
       <c r="C16" t="n">
-        <v>686.6979017231758</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D16" t="n">
-        <v>536.5812623108401</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1910.605225198761</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1910.605225198761</v>
+        <v>1815.20235058508</v>
       </c>
       <c r="T16" t="n">
-        <v>1688.838609768287</v>
+        <v>1815.20235058508</v>
       </c>
       <c r="U16" t="n">
-        <v>1399.73574289393</v>
+        <v>1526.099483710724</v>
       </c>
       <c r="V16" t="n">
-        <v>1145.051254688043</v>
+        <v>1271.414995504837</v>
       </c>
       <c r="W16" t="n">
-        <v>855.6340846510827</v>
+        <v>1271.414995504837</v>
       </c>
       <c r="X16" t="n">
-        <v>855.6340846510827</v>
+        <v>1043.42544460682</v>
       </c>
       <c r="Y16" t="n">
-        <v>855.6340846510827</v>
+        <v>822.6328654632895</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,52 +5513,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5607,25 +5607,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>270.9417306852383</v>
+        <v>713.5009252592424</v>
       </c>
       <c r="C19" t="n">
-        <v>242.4509819463048</v>
+        <v>713.5009252592424</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>713.5009252592424</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>565.5878316768493</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>418.6978841789389</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5701,22 +5701,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590082</v>
+        <v>895.1493900894822</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.5901955154781</v>
+        <v>895.1493900894822</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>270.9417306852386</v>
+        <v>589.4655956925558</v>
       </c>
       <c r="C22" t="n">
-        <v>270.9417306852386</v>
+        <v>589.4655956925558</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736755</v>
+        <v>439.34895628022</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736755</v>
+        <v>439.34895628022</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736755</v>
+        <v>292.4590087823096</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>292.4590087823096</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>146.2418220001675</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208129</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570256</v>
+        <v>999.1036114208129</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590083</v>
+        <v>771.1140605227955</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.5901955154783</v>
+        <v>771.1140605227955</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -6005,13 +6005,13 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6078,28 +6078,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>425.7583423057196</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>425.7583423057196</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>425.7583423057196</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>277.8452487233264</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>130.9553012254161</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>130.9553012254161</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>130.9553012254161</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201817</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221643</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427196</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196075</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.758180993044</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,7 +6333,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6342,13 +6342,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>300.0484256555944</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6388,46 +6388,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437385</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208121</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201815</v>
+        <v>709.6864413838515</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221641</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.209499278634</v>
+        <v>481.6968904858342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.83252492416</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
@@ -6534,31 +6534,31 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390103</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,22 +6622,22 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104704</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U31" t="n">
-        <v>1866.513008862232</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1866.513008862232</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W31" t="n">
-        <v>1577.095838825271</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,13 +6704,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6780,49 +6780,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>391.8664332433625</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.88034699416</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672751</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464048</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.752242696685</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.614279155824</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.920227843172</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671633</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865885</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752796</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L36" t="n">
-        <v>142.6450845291499</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6634387812777</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.759402180614</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.635877180808</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.219395606884</v>
+        <v>2548.787259636257</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>496.9316385705104</v>
+        <v>495.0957149475999</v>
       </c>
       <c r="C37" t="n">
-        <v>328.1063535053265</v>
+        <v>326.159532019693</v>
       </c>
       <c r="D37" t="n">
-        <v>178.1006119557138</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E37" t="n">
-        <v>176.336650785662</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F37" t="n">
-        <v>176.336650785662</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G37" t="n">
-        <v>176.336650785662</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>176.336650785662</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327806</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985991</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769882</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016702</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813948</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2362.501895015322</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2179.442602616975</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1959.87471819408</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U37" t="n">
-        <v>1670.90940237153</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1416.335812028366</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1127.029539854129</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>899.1508868188344</v>
+        <v>897.5367589213697</v>
       </c>
       <c r="Y37" t="n">
-        <v>678.469205538027</v>
+        <v>676.7441797778396</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.229508727735</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.266991787324</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.001293180573</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.213040582329</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2271357927214</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470848</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9429223347665</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.462702840541</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2232.714216052256</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2969.999193969362</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.416110689545</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647543</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>231.7198603918679</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K39" t="n">
-        <v>562.2286029552266</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L39" t="n">
-        <v>562.2286029552266</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="M39" t="n">
-        <v>1154.246957207354</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N39" t="n">
-        <v>1776.34292060669</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O39" t="n">
-        <v>2323.219395606885</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.219395606885</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>565.8493997364806</v>
+        <v>567.7486935666593</v>
       </c>
       <c r="C40" t="n">
-        <v>401.1164238944909</v>
+        <v>403.1266155873927</v>
       </c>
       <c r="D40" t="n">
-        <v>255.2029915680724</v>
+        <v>314.7409713526502</v>
       </c>
       <c r="E40" t="n">
-        <v>111.4931050715966</v>
+        <v>314.7409713526502</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>172.16512880338</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>172.16512880338</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>172.16512880338</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024333</v>
+        <v>177.0587253013231</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379045</v>
+        <v>440.915706532049</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859463</v>
+        <v>832.9057788753455</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095313</v>
+        <v>1256.363625179967</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151928</v>
+        <v>1675.287745231836</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431864</v>
+        <v>2046.538456507028</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532977</v>
+        <v>2341.297145603395</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351319</v>
+        <v>2463.238533416992</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.681182395738</v>
+        <v>2399.693293324134</v>
       </c>
       <c r="S40" t="n">
-        <v>2219.714199220586</v>
+        <v>2220.837208011704</v>
       </c>
       <c r="T40" t="n">
-        <v>2004.238624020885</v>
+        <v>2005.472530674726</v>
       </c>
       <c r="U40" t="n">
-        <v>1719.365617421529</v>
+        <v>1720.710421938093</v>
       </c>
       <c r="V40" t="n">
-        <v>1468.884336301559</v>
+        <v>1470.340038680847</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.670373350516</v>
+        <v>1185.236973592526</v>
       </c>
       <c r="X40" t="n">
-        <v>959.8840295384159</v>
+        <v>961.5615276431488</v>
       </c>
       <c r="Y40" t="n">
-        <v>743.294657480803</v>
+        <v>745.0830534482589</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2053.984252811039</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319333</v>
+        <v>921.9831621891593</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656826</v>
+        <v>778.3953859427378</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>653.6271532118874</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580124</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371966</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1078.283220337914</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891592</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427377</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118874</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371966</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>219.3344627260167</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,10 +8936,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.253057640027</v>
+        <v>246.454569480845</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>226.7688596193112</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>37.13651117804318</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561016</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>49.74439522492548</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>35.67378197783344</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>194.468425061325</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.65129417316465</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>50.03932096701459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.0409798470836</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>87.22776234994804</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>141.0143920027649</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>46.17844073358278</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>61.31209630058664</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>113.4197768217122</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>16.14213605696585</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>46.61145443660351</v>
       </c>
       <c r="X31" t="n">
-        <v>172.2573809594892</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25090,7 +25090,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>31.24465028923896</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.06136363537642</v>
       </c>
       <c r="E37" t="n">
-        <v>144.5778522041222</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388355</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>56.84272132666369</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>142.1629987474154</v>
       </c>
       <c r="F40" t="n">
-        <v>123.7601954044847</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621088</v>
+        <v>161.2710889780132</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768958</v>
+        <v>136.1830258928001</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935094</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.404388424098193e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1053023.146713819</v>
+        <v>1052960.207059281</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1056036.701251716</v>
+        <v>1056137.090778441</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1071013.964613643</v>
+        <v>1071626.637628722</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1071013.964613643</v>
+        <v>1071626.637628722</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>369468.7964389273</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="E2" t="n">
-        <v>357373.6081982848</v>
+        <v>357373.608198285</v>
       </c>
       <c r="F2" t="n">
         <v>357373.6081982849</v>
@@ -26332,28 +26332,28 @@
         <v>357373.6081982848</v>
       </c>
       <c r="I2" t="n">
+        <v>357373.6081982847</v>
+      </c>
+      <c r="J2" t="n">
         <v>357373.6081982848</v>
       </c>
-      <c r="J2" t="n">
-        <v>357373.6081982849</v>
-      </c>
       <c r="K2" t="n">
-        <v>357373.6081982849</v>
+        <v>357373.608198285</v>
       </c>
       <c r="L2" t="n">
         <v>357373.6081982848</v>
       </c>
       <c r="M2" t="n">
-        <v>363035.6082154937</v>
+        <v>363007.3397033518</v>
       </c>
       <c r="N2" t="n">
-        <v>364078.7617093808</v>
+        <v>364107.0302215227</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389275</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485552</v>
+        <v>312970.0160233571</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904769688</v>
+        <v>3416.771119323012</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.93839668399</v>
+        <v>16659.16697241342</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="C4" t="n">
-        <v>192206.5963924298</v>
-      </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709185</v>
@@ -26448,16 +26448,16 @@
         <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.962217674849</v>
+        <v>5069.91576066297</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725542</v>
+        <v>6475.275729222437</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975162</v>
+        <v>13327.3959195899</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.5078997516</v>
+        <v>13327.3959195899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26491,25 +26491,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008168</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-495564.7572314563</v>
       </c>
       <c r="C6" t="n">
-        <v>94403.12198308815</v>
+        <v>94403.12198308806</v>
       </c>
       <c r="D6" t="n">
         <v>94403.12198308806</v>
       </c>
       <c r="E6" t="n">
-        <v>-488006.9320459274</v>
+        <v>-488074.1275361532</v>
       </c>
       <c r="F6" t="n">
-        <v>239370.4819474794</v>
+        <v>239303.2864572536</v>
       </c>
       <c r="G6" t="n">
-        <v>239370.4819474791</v>
+        <v>239303.2864572536</v>
       </c>
       <c r="H6" t="n">
-        <v>239370.4819474792</v>
+        <v>239303.2864572534</v>
       </c>
       <c r="I6" t="n">
-        <v>239370.4819474792</v>
+        <v>239303.2864572533</v>
       </c>
       <c r="J6" t="n">
-        <v>62947.26275488628</v>
+        <v>62880.06726466065</v>
       </c>
       <c r="K6" t="n">
-        <v>239370.4819474795</v>
+        <v>239303.2864572533</v>
       </c>
       <c r="L6" t="n">
-        <v>239370.4819474792</v>
+        <v>239303.2864572538</v>
       </c>
       <c r="M6" t="n">
-        <v>-55995.68907090923</v>
+        <v>-55998.52851977108</v>
       </c>
       <c r="N6" t="n">
-        <v>253091.7980460688</v>
+        <v>252896.100661604</v>
       </c>
       <c r="O6" t="n">
-        <v>231028.2342885762</v>
+        <v>236442.489040393</v>
       </c>
       <c r="P6" t="n">
-        <v>253856.1726852603</v>
+        <v>253101.6560128063</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
     <row r="3">
@@ -26759,10 +26759,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="K3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130962306</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698164</v>
+        <v>20.82395871551677</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,22 +26981,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230875</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>249.1599642490852</v>
+        <v>40.37910189239221</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>68.70517704842338</v>
+        <v>123.3106349274899</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>245.2084391684257</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>119.711503221012</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>80.62886797582075</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>156.7818305540253</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>252.2750097637964</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>113.6131928317157</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.2340038428988</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>185.275934454463</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.455191522836685e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840957848</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.537044377342227</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015058091</v>
+        <v>4.270963899153766</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
   </sheetData>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I29" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026424</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,7 +33728,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,34 +33737,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>187.87601763965</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>145.0576276814857</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>266.133785599895</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>452.027140557599</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927637</v>
@@ -33989,7 +33989,7 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
         <v>372.8719498286952</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532626</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>405.9611022622905</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>452.027140557599</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>674.9245771183487</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.306058528246</v>
+        <v>754.5075703690641</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>682.3589740116433</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>589.4383465909547</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509647</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115023</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597567</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37081,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>416.9991286653367</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>49.32163785977581</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>5.07585359546421</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.8897109947563</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483015</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084738</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772317</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885756</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L38" t="n">
         <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>778.0318315269849</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
         <v>744.7323009263698</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.2961589332283</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>313.4727607777248</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094305</v>
@@ -37637,7 +37637,7 @@
         <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
         <v>232.8901757426737</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.94109712571858</v>
+        <v>84.05088600981426</v>
       </c>
       <c r="K40" t="n">
-        <v>266.4124143792638</v>
+        <v>266.5222032633595</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394361</v>
+        <v>395.9495680235318</v>
       </c>
       <c r="M40" t="n">
-        <v>427.6254094034009</v>
+        <v>427.7351982874965</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359741</v>
+        <v>423.1556768200698</v>
       </c>
       <c r="O40" t="n">
-        <v>374.890929575694</v>
+        <v>375.0007184597897</v>
       </c>
       <c r="P40" t="n">
-        <v>297.626260708194</v>
+        <v>297.7360495922896</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.063330119538</v>
+        <v>123.1731190036336</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312443</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>271.9866948479602</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>313.4727607777248</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
